--- a/data/attendance_2025-10.xlsx
+++ b/data/attendance_2025-10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\code\time-count\time-count\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D944EF2-FC72-44F9-B188-431ADCD204CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF94CD4-8B28-43FC-8D12-8F8D54010073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="72" windowWidth="19764" windowHeight="12288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,9 @@
       <c r="C11" s="3">
         <v>0.37013888888888891</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3">
+        <v>0.77500000000000002</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,8 +723,12 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="3">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.78888888888888886</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,8 +738,12 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="3">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.90972222222222221</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -743,8 +753,12 @@
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="3">
+        <v>0.37430555555555556</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.75902777777777775</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,7 +768,9 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="3">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>

--- a/data/attendance_2025-10.xlsx
+++ b/data/attendance_2025-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\code\time-count\time-count\data\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
   <si>
     <t>日期</t>
   </si>
@@ -149,12 +149,46 @@
   </si>
   <si>
     <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>21:29</t>
+  </si>
+  <si>
+    <t>00:29</t>
+  </si>
+  <si>
+    <t>08:58</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>按小时</t>
+  </si>
+  <si>
+    <t>迟到</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>20:30:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
@@ -553,10 +587,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625"/>
+    <col min="2" max="2" customWidth="true" width="9.77734375"/>
+    <col min="3" max="4" customWidth="true" width="11.6640625"/>
+    <col min="5" max="5" customWidth="true" width="19.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
@@ -768,11 +802,15 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -781,9 +819,12 @@
       <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
+      <c r="F18" s="0"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -795,6 +836,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
